--- a/data/satish/feature_importnace.xlsx
+++ b/data/satish/feature_importnace.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onevmw-my.sharepoint.com/personal/schilloji_vmware_com/Documents/Personal/IIM C APDS/APDS Course/iim_apds_churn_prjct/data/satish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{C20D5B04-0007-44C6-823A-466F6720D070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B238AF23-C0C2-486A-9614-D789561232DC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{C20D5B04-0007-44C6-823A-466F6720D070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6470EAC-461A-4B4E-8B87-B4FB279095A3}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
-    <sheet name="feature_importnace" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="feature_importnace" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">feature_importnace!$A$1:$C$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">feature_importnace!$A$1:$C$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId4"/>
+    <pivotCache cacheId="32" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3097,7 +3099,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable11" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable11" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -3537,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3730,6 +3732,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C082E30A-0C19-49A8-BBBB-5076DBF52516}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D130"/>
   <sheetViews>
@@ -5568,4 +5582,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E4D688-2B25-4DC8-BE43-2ACDCD240C4A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>